--- a/Dados macros/statistic_id270812_inflation-rate-in-brazil-2027.xlsx
+++ b/Dados macros/statistic_id270812_inflation-rate-in-brazil-2027.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\regressão\Dados macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Dados macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D589D3D-A512-4D48-BBC9-FFE73772D5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574440DF-AD41-4164-BB37-1E9E47981ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Statistic as Excel data file</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>inflacao</t>
+  </si>
+  <si>
+    <t>valor</t>
   </si>
 </sst>
 </file>
@@ -300,9 +303,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -324,6 +324,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -671,393 +674,520 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
+        <f>C2/100</f>
+        <v>2.2833000000000001</v>
+      </c>
+      <c r="C2" s="10">
         <v>228.33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
+        <f t="shared" ref="B3:B42" si="0">C3/100</f>
+        <v>6.2911999999999999</v>
+      </c>
+      <c r="C3" s="10">
         <v>629.12</v>
       </c>
-      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
+        <f t="shared" si="0"/>
+        <v>14.3072</v>
+      </c>
+      <c r="C4" s="10">
         <v>1430.72</v>
       </c>
-      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>29.4773</v>
+      </c>
+      <c r="C5" s="10">
         <v>2947.73</v>
       </c>
-      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
+        <f t="shared" si="0"/>
+        <v>4.3277000000000001</v>
+      </c>
+      <c r="C6" s="10">
         <v>432.77</v>
       </c>
-      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
+        <f t="shared" si="0"/>
+        <v>9.5196000000000005</v>
+      </c>
+      <c r="C7" s="10">
         <v>951.96</v>
       </c>
-      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
+        <f t="shared" si="0"/>
+        <v>19.273800000000001</v>
+      </c>
+      <c r="C8" s="10">
         <v>1927.38</v>
       </c>
-      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
+        <f t="shared" si="0"/>
+        <v>20.758299999999998</v>
+      </c>
+      <c r="C9" s="10">
         <v>2075.83</v>
       </c>
-      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="C10" s="10">
         <v>66.010000000000005</v>
       </c>
-      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="C11" s="10">
         <v>15.76</v>
       </c>
-      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>6.93E-2</v>
+      </c>
+      <c r="C12" s="10">
         <v>6.93</v>
       </c>
-      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C13" s="10">
         <v>3.2</v>
       </c>
-      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8600000000000004E-2</v>
+      </c>
+      <c r="C14" s="10">
         <v>4.8600000000000003</v>
       </c>
-      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
+        <f t="shared" si="0"/>
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="C15" s="10">
         <v>7.04</v>
       </c>
-      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
+        <f t="shared" si="0"/>
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="C16" s="10">
         <v>6.84</v>
       </c>
-      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
+        <f t="shared" si="0"/>
+        <v>8.4499999999999992E-2</v>
+      </c>
+      <c r="C17" s="10">
         <v>8.4499999999999993</v>
       </c>
-      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="C18" s="10">
         <v>14.71</v>
       </c>
-      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C19" s="10">
         <v>6.6</v>
       </c>
-      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
+        <f t="shared" si="0"/>
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="C20" s="10">
         <v>6.87</v>
       </c>
-      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="C21" s="10">
         <v>4.18</v>
       </c>
-      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="C22" s="10">
         <v>3.64</v>
       </c>
-      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
+        <f t="shared" si="0"/>
+        <v>5.6799999999999996E-2</v>
+      </c>
+      <c r="C23" s="10">
         <v>5.68</v>
       </c>
-      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="C24" s="10">
         <v>4.8899999999999997</v>
       </c>
-      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
+        <f t="shared" si="0"/>
+        <v>5.04E-2</v>
+      </c>
+      <c r="C25" s="10">
         <v>5.04</v>
       </c>
-      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
+        <f t="shared" si="0"/>
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="C26" s="10">
         <v>6.64</v>
       </c>
-      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="C27" s="10">
         <v>5.4</v>
       </c>
-      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
+        <f t="shared" si="0"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="C28" s="10">
         <v>6.2</v>
       </c>
-      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="C29" s="10">
         <v>6.33</v>
       </c>
-      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0299999999999991E-2</v>
+      </c>
+      <c r="C30" s="10">
         <v>9.0299999999999994</v>
       </c>
-      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
+        <f t="shared" si="0"/>
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="C31" s="10">
         <v>8.74</v>
       </c>
-      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="C32" s="10">
         <v>3.45</v>
       </c>
-      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6699999999999997E-2</v>
+      </c>
+      <c r="C33" s="10">
         <v>3.67</v>
       </c>
-      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
+        <f t="shared" si="0"/>
+        <v>3.73E-2</v>
+      </c>
+      <c r="C34" s="10">
         <v>3.73</v>
       </c>
-      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="C35" s="10">
         <v>3.21</v>
       </c>
-      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C36" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>2022</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
+        <f t="shared" si="0"/>
+        <v>8.2200000000000009E-2</v>
+      </c>
+      <c r="C37" s="10">
         <v>8.2200000000000006</v>
       </c>
-      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>2023</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="C38" s="10">
         <v>5.08</v>
       </c>
-      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>2024</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="C39" s="10">
         <v>3.31</v>
       </c>
-      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>2025</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C40" s="10">
         <v>3.3</v>
       </c>
-      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>2026</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="9">
+        <f t="shared" si="0"/>
+        <v>2.81E-2</v>
+      </c>
+      <c r="C41" s="10">
         <v>2.81</v>
       </c>
-      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>2027</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
+        <f t="shared" si="0"/>
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="C42" s="10">
         <v>3.01</v>
       </c>
-      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
+      <c r="C43" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1078,30 +1208,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="12"/>
@@ -1111,10 +1241,10 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="12"/>
@@ -1125,10 +1255,10 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="12"/>
@@ -1139,10 +1269,10 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="12"/>
@@ -1153,10 +1283,10 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="12"/>
@@ -1167,10 +1297,10 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="12"/>
@@ -1181,10 +1311,10 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="12"/>
@@ -1195,10 +1325,10 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="12"/>
@@ -1209,10 +1339,10 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="12"/>
@@ -1223,10 +1353,10 @@
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="12"/>
@@ -1245,7 +1375,7 @@
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="12"/>
@@ -1264,10 +1394,10 @@
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="12"/>
@@ -1278,10 +1408,10 @@
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="12"/>
@@ -1292,10 +1422,10 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="12"/>
@@ -1306,10 +1436,10 @@
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="12"/>

--- a/Dados macros/statistic_id270812_inflation-rate-in-brazil-2027.xlsx
+++ b/Dados macros/statistic_id270812_inflation-rate-in-brazil-2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Dados macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574440DF-AD41-4164-BB37-1E9E47981ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809FC86D-F246-492D-AA1A-2B145028EE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -229,10 +229,10 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>inflacao</t>
-  </si>
-  <si>
     <t>valor</t>
+  </si>
+  <si>
+    <t>Inflação</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -688,10 +688,10 @@
         <v>62</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
